--- a/book/book1.xlsx
+++ b/book/book1.xlsx
@@ -1,41 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACT-STUDENT\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6595B6D3-7DFE-45AF-9B35-A140061FEA98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2856" yWindow="2856" windowWidth="17280" windowHeight="8880" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Evaluation Warning" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="69">
   <si>
     <t xml:space="preserve">Name  </t>
   </si>
@@ -94,9 +81,6 @@
     <t>Profile</t>
   </si>
   <si>
-    <t>purple</t>
-  </si>
-  <si>
     <t>BSIT</t>
   </si>
   <si>
@@ -109,19 +93,10 @@
     <t>mae</t>
   </si>
   <si>
-    <t>Honey</t>
-  </si>
-  <si>
     <t>Dancing</t>
   </si>
   <si>
-    <t>pink</t>
-  </si>
-  <si>
-    <t>hon@gmail.com</t>
-  </si>
-  <si>
-    <t>yooo</t>
+    <t>000</t>
   </si>
   <si>
     <t>hon</t>
@@ -139,23 +114,136 @@
     <t>afedgergr</t>
   </si>
   <si>
-    <t>C:\Users\ACT-STUDENT\Downloads\𝑫𝒆𝒍𝒂𝒏𝒄𝒚 𝑫𝒆𝒗𝒊𝒏.jfif</t>
+    <t>C:\Users\ACT-STUDENT\Downloads\_xD835__xDC6B__xD835__xDC86__xD835__xDC8D__xD835__xDC82__xD835__xDC8F__xD835__xDC84__xD835__xDC9A_ _xD835__xDC6B__xD835__xDC86__xD835__xDC97__xD835__xDC8A__xD835__xDC8F_.jfif</t>
   </si>
   <si>
     <t>Jy</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Successfully logged in!</t>
+  </si>
+  <si>
+    <t>https://www.e-iceblue.com/Buy/Spire.XLS.html</t>
+  </si>
+  <si>
+    <t>Buy Now!</t>
+  </si>
+  <si>
+    <t>mailto:support@e-iceblue.com</t>
+  </si>
+  <si>
+    <t>Contact US</t>
+  </si>
+  <si>
+    <t>https://www.e-iceblue.com</t>
+  </si>
+  <si>
+    <t>Home page</t>
+  </si>
+  <si>
+    <t>e-iceblue Inc. 2002-2025 All rights reserverd</t>
+  </si>
+  <si>
+    <t>Spire.XLS for .NET</t>
+  </si>
+  <si>
+    <t>honey</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>cebu</t>
+  </si>
+  <si>
+    <t>d@gmail.com</t>
+  </si>
+  <si>
+    <t>BSED</t>
+  </si>
+  <si>
+    <t>sde</t>
+  </si>
+  <si>
+    <t>C:\Users\Erica Mae\OneDrive\Pictures\Screenshots\0.png</t>
+  </si>
+  <si>
+    <t>Added new user: honey</t>
+  </si>
+  <si>
+    <t>Deleted a student</t>
+  </si>
+  <si>
+    <t>Maee</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>erics</t>
+  </si>
+  <si>
+    <t>C:\Users\Erica Mae\OneDrive\Pictures\Screenshots\1.png</t>
+  </si>
+  <si>
+    <t>Updated a student</t>
+  </si>
+  <si>
+    <t>Purple</t>
+  </si>
+  <si>
+    <t>Successfully logged out!</t>
+  </si>
+  <si>
+    <t>Dannel</t>
+  </si>
+  <si>
+    <t>Cebu City</t>
+  </si>
+  <si>
+    <t>dk@gmail.com</t>
+  </si>
+  <si>
+    <t>BSBA</t>
+  </si>
+  <si>
+    <t>ahha</t>
+  </si>
+  <si>
+    <t>dk</t>
+  </si>
+  <si>
+    <t>C:\Users\Erica Mae\OneDrive\Pictures\Screenshots\FINAL LOGO.png</t>
+  </si>
+  <si>
+    <t>Added new user: Dannel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="6">
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="177" formatCode="dd/MM/yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,9 +257,25 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -179,7 +283,7 @@
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -194,41 +298,368 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="259">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="258" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="258" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="258"/>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Comma" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Comma [0]" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Currency" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Currency [0]" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Hyperlink" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal" xfId="0"/>
+    <cellStyle name="Percent" xfId="15"/>
+    <cellStyle name="Currency" xfId="16"/>
+    <cellStyle name="Currency [0]" xfId="17"/>
+    <cellStyle name="Comma" xfId="18"/>
+    <cellStyle name="Comma [0]" xfId="19"/>
+    <cellStyle name="Hyperlink" xfId="258"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+  <extLst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
@@ -536,80 +967,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA903DD5-E141-4AB0-A04E-164AA7715A96}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="0" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="0" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" ht="15">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:13" ht="15">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="G2" s="3">
         <v>37891</v>
@@ -618,65 +1049,68 @@
         <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="K2" t="s">
         <v>10</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15">
       <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="1">
+        <v>36557</v>
+      </c>
+      <c r="H3">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
         <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="5">
-        <v>38305</v>
-      </c>
-      <c r="H3">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3">
-        <v>123</v>
       </c>
       <c r="M3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -685,45 +1119,649 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="5">
+        <v>28</v>
+      </c>
+      <c r="G4" s="1">
         <v>44101</v>
       </c>
       <c r="H4">
         <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L4">
         <v>123</v>
       </c>
       <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="1">
+        <v>36557</v>
+      </c>
+      <c r="H5">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5">
+        <v>123</v>
+      </c>
+      <c r="M5">
         <v>1</v>
       </c>
-      <c r="N4" t="s">
-        <v>34</v>
+      <c r="N5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="1">
+        <v>37891</v>
+      </c>
+      <c r="H6">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6">
+        <v>111</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="9">
+        <v>38257</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7">
+        <v>123</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="mailto:erica@gmail.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F3" r:id="rId2" display="mailto:hon@gmail.com" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F2" r:id="rId1" display="mailto:erica@gmail.com"/>
+    <hyperlink ref="F3" r:id="rId2" display="mailto:hon@gmail.com"/>
   </hyperlinks>
+  <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CDD5446-DB65-4017-9196-EAC4E865D939}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="8.8515625" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45905</v>
+      </c>
+      <c r="D2" s="6">
+        <v>45786.089143518519</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45905</v>
+      </c>
+      <c r="D3" s="6">
+        <v>45786.093287037038</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="15">
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45905</v>
+      </c>
+      <c r="D4" s="6">
+        <v>45786.09443287037</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="15">
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45905</v>
+      </c>
+      <c r="D5" s="6">
+        <v>45786.094780092593</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45905</v>
+      </c>
+      <c r="D6" s="6">
+        <v>45786.098564814813</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45905</v>
+      </c>
+      <c r="D7" s="6">
+        <v>45786.100706018522</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45905</v>
+      </c>
+      <c r="D8" s="6">
+        <v>45786.106087962966</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1">
+        <v>45905</v>
+      </c>
+      <c r="D9" s="6">
+        <v>45786.1084837963</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1">
+        <v>45905</v>
+      </c>
+      <c r="D10" s="6">
+        <v>45786.109803240739</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1">
+        <v>45905</v>
+      </c>
+      <c r="D11" s="6">
+        <v>45786.116481481484</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="15">
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="1">
+        <v>45905</v>
+      </c>
+      <c r="D12" s="6">
+        <v>45786.117951388886</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1">
+        <v>45905</v>
+      </c>
+      <c r="D13" s="6">
+        <v>45786.119629629633</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="9">
+        <v>45905</v>
+      </c>
+      <c r="D14" s="6">
+        <v>45786.121064814812</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="9">
+        <v>45905</v>
+      </c>
+      <c r="D15" s="6">
+        <v>45786.121168981481</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="9">
+        <v>45905</v>
+      </c>
+      <c r="D16" s="6">
+        <v>45786.121388888889</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="9">
+        <v>45905</v>
+      </c>
+      <c r="D17" s="6">
+        <v>45786.122418981482</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="9">
+        <v>45905</v>
+      </c>
+      <c r="D18" s="6">
+        <v>45786.124386574076</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="9">
+        <v>45905</v>
+      </c>
+      <c r="D19" s="6">
+        <v>45786.125601851854</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="9">
+        <v>45905</v>
+      </c>
+      <c r="D20" s="6">
+        <v>45786.129386574074</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="9">
+        <v>45905</v>
+      </c>
+      <c r="D21" s="6">
+        <v>45786.130844907406</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="9">
+        <v>45905</v>
+      </c>
+      <c r="D22" s="6">
+        <v>45786.132881944446</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="15">
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="9">
+        <v>45905</v>
+      </c>
+      <c r="D23" s="6">
+        <v>45786.13449074074</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="9">
+        <v>45905</v>
+      </c>
+      <c r="D24" s="6">
+        <v>45786.140185185184</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="15">
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="9">
+        <v>45905</v>
+      </c>
+      <c r="D25" s="6">
+        <v>45786.141134259262</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15">
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="9">
+        <v>45905</v>
+      </c>
+      <c r="D26" s="6">
+        <v>45786.146018518521</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="9">
+        <v>45905</v>
+      </c>
+      <c r="D27" s="6">
+        <v>45786.157083333332</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="9">
+        <v>45905</v>
+      </c>
+      <c r="D28" s="6">
+        <v>45786.162175925929</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="9">
+        <v>45905</v>
+      </c>
+      <c r="D29" s="6">
+        <v>45786.162754629629</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" ht="15">
+      <c r="B1" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" ht="15">
+      <c r="B2" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" ht="15">
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" ht="15">
+      <c r="B5" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" ht="15">
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" ht="15">
+      <c r="B8" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" ht="15">
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" ht="15">
+      <c r="B11" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" display="https://www.e-iceblue.com"/>
+    <hyperlink ref="B8" r:id="rId2" display="mailto:support@e-iceblue.com"/>
+    <hyperlink ref="B11" r:id="rId3" display="https://www.e-iceblue.com/Buy/Spire.XLS.html"/>
+  </hyperlinks>
+  <printOptions/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/book/book1.xlsx
+++ b/book/book1.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACT-STUDENT\source\repos\Villahermosaaa\book\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EE1CBA-17EC-4955-AB65-AC14DF7C2154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2856" yWindow="2856" windowWidth="17280" windowHeight="8880" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Evaluation Warning" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="71">
   <si>
     <t xml:space="preserve">Name  </t>
   </si>
@@ -114,7 +119,7 @@
     <t>afedgergr</t>
   </si>
   <si>
-    <t>C:\Users\ACT-STUDENT\Downloads\_xD835__xDC6B__xD835__xDC86__xD835__xDC8D__xD835__xDC82__xD835__xDC8F__xD835__xDC84__xD835__xDC9A_ _xD835__xDC6B__xD835__xDC86__xD835__xDC97__xD835__xDC8A__xD835__xDC8F_.jfif</t>
+    <t>C:\Users\ACT-STUDENT\Downloads\𝑫𝒆𝒍𝒂𝒏𝒄𝒚 𝑫𝒆𝒗𝒊𝒏.jfif</t>
   </si>
   <si>
     <t>Jy</t>
@@ -135,30 +140,30 @@
     <t>Successfully logged in!</t>
   </si>
   <si>
+    <t>Spire.XLS for .NET</t>
+  </si>
+  <si>
+    <t>e-iceblue Inc. 2002-2025 All rights reserverd</t>
+  </si>
+  <si>
+    <t>Home page</t>
+  </si>
+  <si>
+    <t>https://www.e-iceblue.com</t>
+  </si>
+  <si>
+    <t>Contact US</t>
+  </si>
+  <si>
+    <t>mailto:support@e-iceblue.com</t>
+  </si>
+  <si>
+    <t>Buy Now!</t>
+  </si>
+  <si>
     <t>https://www.e-iceblue.com/Buy/Spire.XLS.html</t>
   </si>
   <si>
-    <t>Buy Now!</t>
-  </si>
-  <si>
-    <t>mailto:support@e-iceblue.com</t>
-  </si>
-  <si>
-    <t>Contact US</t>
-  </si>
-  <si>
-    <t>https://www.e-iceblue.com</t>
-  </si>
-  <si>
-    <t>Home page</t>
-  </si>
-  <si>
-    <t>e-iceblue Inc. 2002-2025 All rights reserverd</t>
-  </si>
-  <si>
-    <t>Spire.XLS for .NET</t>
-  </si>
-  <si>
     <t>honey</t>
   </si>
   <si>
@@ -180,12 +185,6 @@
     <t>C:\Users\Erica Mae\OneDrive\Pictures\Screenshots\0.png</t>
   </si>
   <si>
-    <t>Added new user: honey</t>
-  </si>
-  <si>
-    <t>Deleted a student</t>
-  </si>
-  <si>
     <t>Maee</t>
   </si>
   <si>
@@ -198,9 +197,6 @@
     <t>C:\Users\Erica Mae\OneDrive\Pictures\Screenshots\1.png</t>
   </si>
   <si>
-    <t>Updated a student</t>
-  </si>
-  <si>
     <t>Purple</t>
   </si>
   <si>
@@ -228,7 +224,22 @@
     <t>C:\Users\Erica Mae\OneDrive\Pictures\Screenshots\FINAL LOGO.png</t>
   </si>
   <si>
-    <t>Added new user: Dannel</t>
+    <t>ram</t>
+  </si>
+  <si>
+    <t>Singing</t>
+  </si>
+  <si>
+    <t>Mingla</t>
+  </si>
+  <si>
+    <t>ram@gmail.com</t>
+  </si>
+  <si>
+    <t>ghngasdf</t>
+  </si>
+  <si>
+    <t>C:\Users\ACT-STUDENT\Downloads\634f581931b49fd08029d8edeedf3676.jpg</t>
   </si>
 </sst>
 </file>
@@ -236,14 +247,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="177" formatCode="dd/MM/yyyy"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,7 +268,7 @@
       <family val="2"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -273,7 +284,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -283,7 +294,7 @@
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -298,368 +309,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="259">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="258" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="258" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="258"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0"/>
-    <cellStyle name="Percent" xfId="15"/>
-    <cellStyle name="Currency" xfId="16"/>
-    <cellStyle name="Currency [0]" xfId="17"/>
-    <cellStyle name="Comma" xfId="18"/>
-    <cellStyle name="Comma [0]" xfId="19"/>
-    <cellStyle name="Hyperlink" xfId="258"/>
+    <cellStyle name="Comma" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Comma [0]" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Currency" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Currency [0]" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Hyperlink" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
-  <extLst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
@@ -967,19 +656,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA903DD5-E141-4AB0-A04E-164AA7715A96}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="10.7109375" style="0" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="0" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1023,7 +712,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -1037,7 +726,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>21</v>
@@ -1064,7 +753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1108,7 +797,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1152,7 +841,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -1196,9 +885,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -1210,7 +899,7 @@
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
@@ -1228,7 +917,7 @@
         <v>9</v>
       </c>
       <c r="K6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L6">
         <v>111</v>
@@ -1237,12 +926,12 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
         <v>46</v>
@@ -1251,13 +940,13 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G7" s="9">
         <v>38257</v>
@@ -1266,13 +955,13 @@
         <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L7">
         <v>123</v>
@@ -1281,34 +970,78 @@
         <v>1</v>
       </c>
       <c r="N7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s">
         <v>67</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="10">
+        <v>38013</v>
+      </c>
+      <c r="H8">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8">
+        <v>123</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="mailto:erica@gmail.com"/>
-    <hyperlink ref="F3" r:id="rId2" display="mailto:hon@gmail.com"/>
+    <hyperlink ref="F2" r:id="rId1" display="mailto:erica@gmail.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F3" r:id="rId2" display="mailto:hon@gmail.com" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
-  <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CDD5446-DB65-4017-9196-EAC4E865D939}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="8.8515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="47.5703125" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -1322,7 +1055,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1336,7 +1069,7 @@
         <v>45786.089143518519</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1350,29 +1083,35 @@
         <v>45786.093287037038</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1">
         <v>45905</v>
       </c>
       <c r="D4" s="6">
-        <v>45786.09443287037</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="15">
+        <v>45786.098564814813</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1">
         <v>45905</v>
       </c>
       <c r="D5" s="6">
-        <v>45786.094780092593</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15">
+        <v>45786.100706018522</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1383,12 +1122,12 @@
         <v>45905</v>
       </c>
       <c r="D6" s="6">
-        <v>45786.098564814813</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15">
+        <v>45786.106087962966</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
         <v>36</v>
@@ -1397,12 +1136,12 @@
         <v>45905</v>
       </c>
       <c r="D7" s="6">
-        <v>45786.100706018522</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15">
+        <v>45786.108483796299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
         <v>36</v>
@@ -1411,10 +1150,10 @@
         <v>45905</v>
       </c>
       <c r="D8" s="6">
-        <v>45786.106087962966</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15">
+        <v>45786.109803240739</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -1425,10 +1164,10 @@
         <v>45905</v>
       </c>
       <c r="D9" s="6">
-        <v>45786.1084837963</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15">
+        <v>45786.116481481484</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -1439,63 +1178,66 @@
         <v>45905</v>
       </c>
       <c r="D10" s="6">
-        <v>45786.109803240739</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15">
+        <v>45786.119629629633</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="1">
+        <v>57</v>
+      </c>
+      <c r="C11" s="9">
         <v>45905</v>
       </c>
       <c r="D11" s="6">
-        <v>45786.116481481484</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="15">
+        <v>45786.121064814812</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
       <c r="B12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="1">
+        <v>36</v>
+      </c>
+      <c r="C12" s="9">
         <v>45905</v>
       </c>
       <c r="D12" s="6">
-        <v>45786.117951388886</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15">
+        <v>45786.121168981481</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="1">
+        <v>57</v>
+      </c>
+      <c r="C13" s="9">
         <v>45905</v>
       </c>
       <c r="D13" s="6">
-        <v>45786.119629629633</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15">
+        <v>45786.121388888889</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="C14" s="9">
         <v>45905</v>
       </c>
       <c r="D14" s="6">
-        <v>45786.121064814812</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15">
+        <v>45786.122418981482</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -1506,24 +1248,24 @@
         <v>45905</v>
       </c>
       <c r="D15" s="6">
-        <v>45786.121168981481</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15">
+        <v>45786.124386574076</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="C16" s="9">
         <v>45905</v>
       </c>
       <c r="D16" s="6">
-        <v>45786.121388888889</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15">
+        <v>45786.125601851854</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -1534,10 +1276,10 @@
         <v>45905</v>
       </c>
       <c r="D17" s="6">
-        <v>45786.122418981482</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15">
+        <v>45786.129386574074</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -1548,10 +1290,10 @@
         <v>45905</v>
       </c>
       <c r="D18" s="6">
-        <v>45786.124386574076</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15">
+        <v>45786.130844907406</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -1562,12 +1304,12 @@
         <v>45905</v>
       </c>
       <c r="D19" s="6">
-        <v>45786.125601851854</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15">
+        <v>45786.132881944446</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
         <v>36</v>
@@ -1576,12 +1318,12 @@
         <v>45905</v>
       </c>
       <c r="D20" s="6">
-        <v>45786.129386574074</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15">
+        <v>45786.140185185184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
         <v>36</v>
@@ -1590,12 +1332,12 @@
         <v>45905</v>
       </c>
       <c r="D21" s="6">
-        <v>45786.130844907406</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15">
+        <v>45786.146018518521</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
         <v>36</v>
@@ -1604,164 +1346,98 @@
         <v>45905</v>
       </c>
       <c r="D22" s="6">
-        <v>45786.132881944446</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="15">
+        <v>45786.157083333332</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="C23" s="9">
         <v>45905</v>
       </c>
       <c r="D23" s="6">
-        <v>45786.13449074074</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15">
+        <v>45786.162175925929</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C24" s="9">
         <v>45905</v>
       </c>
       <c r="D24" s="6">
-        <v>45786.140185185184</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="15">
-      <c r="B25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="9">
-        <v>45905</v>
-      </c>
-      <c r="D25" s="6">
-        <v>45786.141134259262</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15">
-      <c r="A26" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="9">
-        <v>45905</v>
-      </c>
-      <c r="D26" s="6">
-        <v>45786.146018518521</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15">
-      <c r="A27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="9">
-        <v>45905</v>
-      </c>
-      <c r="D27" s="6">
-        <v>45786.157083333332</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15">
-      <c r="A28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="9">
-        <v>45905</v>
-      </c>
-      <c r="D28" s="6">
-        <v>45786.162175925929</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15">
-      <c r="A29" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="9">
-        <v>45905</v>
-      </c>
-      <c r="D29" s="6">
         <v>45786.162754629629</v>
       </c>
     </row>
   </sheetData>
-  <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" ht="15">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="2" ht="15">
-      <c r="B2" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" ht="15">
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" ht="15">
-      <c r="B5" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" ht="15">
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" ht="15">
-      <c r="B8" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" ht="15">
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" ht="15">
-      <c r="B11" s="8" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" display="https://www.e-iceblue.com"/>
-    <hyperlink ref="B8" r:id="rId2" display="mailto:support@e-iceblue.com"/>
-    <hyperlink ref="B11" r:id="rId3" display="https://www.e-iceblue.com/Buy/Spire.XLS.html"/>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B8" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="B11" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
   </hyperlinks>
-  <printOptions/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/book/book1.xlsx
+++ b/book/book1.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACT-STUDENT\source\repos\Villahermosaaa\book\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EE1CBA-17EC-4955-AB65-AC14DF7C2154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="65416" yWindow="65416" windowWidth="29040" windowHeight="15990" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Evaluation Warning" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="78">
   <si>
     <t xml:space="preserve">Name  </t>
   </si>
@@ -107,22 +102,10 @@
     <t>hon</t>
   </si>
   <si>
-    <t>mandaue</t>
-  </si>
-  <si>
     <t>Pink</t>
   </si>
   <si>
-    <t>fdegrd@gmail.com</t>
-  </si>
-  <si>
-    <t>afedgergr</t>
-  </si>
-  <si>
-    <t>C:\Users\ACT-STUDENT\Downloads\𝑫𝒆𝒍𝒂𝒏𝒄𝒚 𝑫𝒆𝒗𝒊𝒏.jfif</t>
-  </si>
-  <si>
-    <t>Jy</t>
+    <t>Erica Mae</t>
   </si>
   <si>
     <t>User</t>
@@ -140,30 +123,30 @@
     <t>Successfully logged in!</t>
   </si>
   <si>
+    <t>https://www.e-iceblue.com/Buy/Spire.XLS.html</t>
+  </si>
+  <si>
+    <t>Buy Now!</t>
+  </si>
+  <si>
+    <t>mailto:support@e-iceblue.com</t>
+  </si>
+  <si>
+    <t>Contact US</t>
+  </si>
+  <si>
+    <t>https://www.e-iceblue.com</t>
+  </si>
+  <si>
+    <t>Home page</t>
+  </si>
+  <si>
+    <t>e-iceblue Inc. 2002-2025 All rights reserverd</t>
+  </si>
+  <si>
     <t>Spire.XLS for .NET</t>
   </si>
   <si>
-    <t>e-iceblue Inc. 2002-2025 All rights reserverd</t>
-  </si>
-  <si>
-    <t>Home page</t>
-  </si>
-  <si>
-    <t>https://www.e-iceblue.com</t>
-  </si>
-  <si>
-    <t>Contact US</t>
-  </si>
-  <si>
-    <t>mailto:support@e-iceblue.com</t>
-  </si>
-  <si>
-    <t>Buy Now!</t>
-  </si>
-  <si>
-    <t>https://www.e-iceblue.com/Buy/Spire.XLS.html</t>
-  </si>
-  <si>
     <t>honey</t>
   </si>
   <si>
@@ -240,21 +223,55 @@
   </si>
   <si>
     <t>C:\Users\ACT-STUDENT\Downloads\634f581931b49fd08029d8edeedf3676.jpg</t>
+  </si>
+  <si>
+    <t>05/14/2025</t>
+  </si>
+  <si>
+    <t>Updated a student</t>
+  </si>
+  <si>
+    <t>Deleted an active student</t>
+  </si>
+  <si>
+    <t>Elvin</t>
+  </si>
+  <si>
+    <t>Naga</t>
+  </si>
+  <si>
+    <t>salim@gmaiil.com</t>
+  </si>
+  <si>
+    <t>hatdog</t>
+  </si>
+  <si>
+    <t>elvin</t>
+  </si>
+  <si>
+    <t>C:\Users\Erica Mae\Downloads\elvin.jpg</t>
+  </si>
+  <si>
+    <t>Added new user: Elvin</t>
+  </si>
+  <si>
+    <t>C:\Users\Erica Mae\OneDrive\Desktop\pp\me.PNG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="177" formatCode="dd/MM/yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,7 +285,7 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -284,7 +301,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -294,7 +311,7 @@
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -309,23 +326,362 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="343">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="342" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="342" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -336,19 +692,88 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="342"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Comma" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Comma [0]" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Currency" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Currency [0]" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Hyperlink" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal" xfId="0"/>
+    <cellStyle name="Percent" xfId="15"/>
+    <cellStyle name="Currency" xfId="16"/>
+    <cellStyle name="Currency [0]" xfId="17"/>
+    <cellStyle name="Comma" xfId="18"/>
+    <cellStyle name="Comma [0]" xfId="19"/>
+    <cellStyle name="Hyperlink" xfId="342"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+  <extLst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
@@ -656,19 +1081,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA903DD5-E141-4AB0-A04E-164AA7715A96}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" topLeftCell="A1">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="0" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="0" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -712,7 +1137,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -726,7 +1151,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>21</v>
@@ -753,24 +1178,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15">
       <c r="A3" t="s">
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G3" s="1">
         <v>36557</v>
@@ -779,10 +1204,10 @@
         <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s">
         <v>25</v>
@@ -794,12 +1219,12 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -808,25 +1233,25 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G4" s="1">
-        <v>44101</v>
+        <v>37891</v>
       </c>
       <c r="H4">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
         <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="K4" t="s">
         <v>22</v>
@@ -835,30 +1260,30 @@
         <v>123</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G5" s="1">
         <v>36557</v>
@@ -867,13 +1292,13 @@
         <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="L5">
         <v>123</v>
@@ -882,12 +1307,12 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -899,7 +1324,7 @@
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
@@ -917,36 +1342,36 @@
         <v>9</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L6">
         <v>111</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" t="s">
         <v>56</v>
-      </c>
-      <c r="F7" t="s">
-        <v>60</v>
       </c>
       <c r="G7" s="9">
         <v>38257</v>
@@ -955,13 +1380,13 @@
         <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L7">
         <v>123</v>
@@ -970,27 +1395,27 @@
         <v>1</v>
       </c>
       <c r="N7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" t="s">
-        <v>68</v>
       </c>
       <c r="G8" s="10">
         <v>38013</v>
@@ -999,13 +1424,13 @@
         <v>21</v>
       </c>
       <c r="I8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" t="s">
         <v>61</v>
-      </c>
-      <c r="J8" t="s">
-        <v>69</v>
-      </c>
-      <c r="K8" t="s">
-        <v>65</v>
       </c>
       <c r="L8">
         <v>123</v>
@@ -1014,53 +1439,98 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15">
+      <c r="A9" t="s">
         <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="12">
+        <v>39352</v>
+      </c>
+      <c r="H9">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9">
+        <v>123</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="mailto:erica@gmail.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F3" r:id="rId2" display="mailto:hon@gmail.com" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F2" r:id="rId1" display="mailto:erica@gmail.com"/>
+    <hyperlink ref="F3" r:id="rId2" display="mailto:hon@gmail.com"/>
   </hyperlinks>
+  <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CDD5446-DB65-4017-9196-EAC4E865D939}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0" topLeftCell="A1">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="47.5703125" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="47.57421875" style="0" customWidth="1"/>
+    <col min="4" max="4" width="8.8515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1">
         <v>45905</v>
@@ -1069,12 +1539,12 @@
         <v>45786.089143518519</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15">
       <c r="A3" t="s">
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1">
         <v>45905</v>
@@ -1083,12 +1553,12 @@
         <v>45786.093287037038</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1">
         <v>45905</v>
@@ -1097,12 +1567,12 @@
         <v>45786.098564814813</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1">
         <v>45905</v>
@@ -1111,12 +1581,12 @@
         <v>45786.100706018522</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1">
         <v>45905</v>
@@ -1125,26 +1595,26 @@
         <v>45786.106087962966</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1">
         <v>45905</v>
       </c>
       <c r="D7" s="6">
-        <v>45786.108483796299</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45786.1084837963</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1">
         <v>45905</v>
@@ -1153,12 +1623,12 @@
         <v>45786.109803240739</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1">
         <v>45905</v>
@@ -1167,12 +1637,12 @@
         <v>45786.116481481484</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1">
         <v>45905</v>
@@ -1181,12 +1651,12 @@
         <v>45786.119629629633</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C11" s="9">
         <v>45905</v>
@@ -1195,12 +1665,12 @@
         <v>45786.121064814812</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C12" s="9">
         <v>45905</v>
@@ -1209,12 +1679,12 @@
         <v>45786.121168981481</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C13" s="9">
         <v>45905</v>
@@ -1223,12 +1693,12 @@
         <v>45786.121388888889</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C14" s="9">
         <v>45905</v>
@@ -1237,12 +1707,12 @@
         <v>45786.122418981482</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C15" s="9">
         <v>45905</v>
@@ -1251,12 +1721,12 @@
         <v>45786.124386574076</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C16" s="9">
         <v>45905</v>
@@ -1265,12 +1735,12 @@
         <v>45786.125601851854</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C17" s="9">
         <v>45905</v>
@@ -1279,12 +1749,12 @@
         <v>45786.129386574074</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C18" s="9">
         <v>45905</v>
@@ -1293,12 +1763,12 @@
         <v>45786.130844907406</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C19" s="9">
         <v>45905</v>
@@ -1307,12 +1777,12 @@
         <v>45786.132881944446</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C20" s="9">
         <v>45905</v>
@@ -1321,12 +1791,12 @@
         <v>45786.140185185184</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C21" s="9">
         <v>45905</v>
@@ -1335,12 +1805,12 @@
         <v>45786.146018518521</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C22" s="9">
         <v>45905</v>
@@ -1349,12 +1819,12 @@
         <v>45786.157083333332</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="14.25" customHeight="1">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C23" s="9">
         <v>45905</v>
@@ -1363,12 +1833,12 @@
         <v>45786.162175925929</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C24" s="9">
         <v>45905</v>
@@ -1377,67 +1847,349 @@
         <v>45786.162754629629</v>
       </c>
     </row>
+    <row r="25" spans="1:4" ht="15">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="6">
+        <v>45791.579710648148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="6">
+        <v>45791.5802662037</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="6">
+        <v>45791.580949074072</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="6">
+        <v>45791.581319444442</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="6">
+        <v>45791.582268518519</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="6">
+        <v>45791.582361111112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15">
+      <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="6">
+        <v>45791.582615740743</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15">
+      <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="6">
+        <v>45791.585659722223</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15">
+      <c r="A33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="6">
+        <v>45791.590474537035</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="6">
+        <v>45791.593217592592</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="6">
+        <v>45791.596284722225</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="6">
+        <v>45791.59716435185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15">
+      <c r="A37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="6">
+        <v>45791.597407407404</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="6">
+        <v>45791.601469907408</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="6">
+        <v>45791.601666666669</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="6">
+        <v>45791.6024537037</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" s="6">
+        <v>45791.603252314817</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="6">
+        <v>45791.6040162037</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15">
+      <c r="A43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="6">
+        <v>45791.604131944441</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15">
+      <c r="A44" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="6">
+        <v>45791.604791666665</v>
+      </c>
+    </row>
   </sheetData>
+  <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup horizontalDpi="600" verticalDpi="600" orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1" ht="15">
       <c r="B1" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" ht="15">
+      <c r="B2" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" ht="15">
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" ht="15">
+      <c r="B5" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" ht="15">
       <c r="B7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" ht="15">
       <c r="B8" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" ht="15">
       <c r="B10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" ht="15">
       <c r="B11" s="8" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="B8" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="B11" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId1" display="https://www.e-iceblue.com"/>
+    <hyperlink ref="B8" r:id="rId2" display="mailto:support@e-iceblue.com"/>
+    <hyperlink ref="B11" r:id="rId3" display="https://www.e-iceblue.com/Buy/Spire.XLS.html"/>
   </hyperlinks>
+  <printOptions/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>